--- a/biology/Biochimie/Omadacycline/Omadacycline.xlsx
+++ b/biology/Biochimie/Omadacycline/Omadacycline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'omadacycline est un antibiotique de la classe des tétracyclines.
@@ -512,9 +524,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une aminométhylcycline, dérivée de la minocycline[2]. Cette modification permet de conserver une activité sur certains germes résistants aux tétracyclines[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une aminométhylcycline, dérivée de la minocycline. Cette modification permet de conserver une activité sur certains germes résistants aux tétracyclines.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'omadacycline inhibe la synthèse protéique des bactéries, même en présence de la protéine ribosomique de protection Tet(o)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'omadacycline inhibe la synthèse protéique des bactéries, même en présence de la protéine ribosomique de protection Tet(o).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'omadacycline est active contre le staphylocoque doré, y compris contre ceux résistant à la méthicilline, les streptocoques, Haemophilus influenzae, Moraxella catarrhalis et Escherichia coli[5]. Il agit également contre les Legionella et les Chlamydia[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'omadacycline est active contre le staphylocoque doré, y compris contre ceux résistant à la méthicilline, les streptocoques, Haemophilus influenzae, Moraxella catarrhalis et Escherichia coli. Il agit également contre les Legionella et les Chlamydia.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Pharmacodynamique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une forme intraveineuse et une forme orale. Il pénètre bien au niveau du tissu pulmonaire[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une forme intraveineuse et une forme orale. Il pénètre bien au niveau du tissu pulmonaire.
 </t>
         </is>
       </c>
@@ -636,10 +656,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les infections de la peau, l'efficacité de l'omadacycline est comparable à celle du linézolide[7].
-Dans les pneumopathies aiguës à germes communautaires, il est aussi efficace que la moxifloxacine[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les infections de la peau, l'efficacité de l'omadacycline est comparable à celle du linézolide.
+Dans les pneumopathies aiguës à germes communautaires, il est aussi efficace que la moxifloxacine.
 </t>
         </is>
       </c>
